--- a/biology/Zoologie/Aulonocara_hueseri/Aulonocara_hueseri.xlsx
+++ b/biology/Zoologie/Aulonocara_hueseri/Aulonocara_hueseri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aulonocara hueseri est une espèce de poissons d'eau douce de la famille des Cichlidae endémique du lac Malawi en Afrique.
 </t>
@@ -511,9 +523,11 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce de poissons porte les noms vernaculaires suivants[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce de poissons porte les noms vernaculaires suivants :
 en allemand, Kondensstreifen-Buntbarsch, White-Top ;
 en anglais, Aulonocara white top, Night aulonocara ;
 en chewa, Chisawasawa ;
@@ -545,9 +559,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aulonocara hueseri mesure au maximum 79 mm, queue non comprise[1]. Cette espèce vit dans les zones sableuses et se nourrit d'invertébrés[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aulonocara hueseri mesure au maximum 79 mm, queue non comprise. Cette espèce vit dans les zones sableuses et se nourrit d'invertébrés.
 </t>
         </is>
       </c>
@@ -578,14 +594,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Reproduction
-Cette espèce est une incubatrice buccale maternelle. Les femelles gardent les œufs, les larves puis les alevins pendant environ trois semaines, en les protégeant dans leur gueule (sans manger ou en filtrant très légèrement les micro-détritus). Les mâles peuvent se montrer très insistants dès les premières maturités sexuelles des femelles, il préférable de maintenir cette espèce en groupes de plusieurs individus, de manière à diviser l'agressivité d'un mâle dominant sur plusieurs individus.
-Alimentation
-Une alimentation à base de vers rouges ou vers de vase est fortement déconseillée.
-Maintenance
-Comme la plupart des espèces de poissons du lac Malawi une température comprise entre 22 et 26 °C est nécessaire pour une bonne maintenance.
-Croisement, hybridation, sélection
-Il est impératif de maintenir cette espèce et le genre Aulonocara seul ou en compagnie d'autres espèces, d'autres genres, mais de provenance similaire (lac Malawi). toutes les femelles du genre étant très semblables. Le commerce aquariophile a également vu apparaitre un grand nombre de spécimens provenant d'Asie notamment et aux couleurs des plus farfelues ou albinos. En raison de la sélection, hybridation et autres procédés chimiques et barbares de laboratoires.
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est une incubatrice buccale maternelle. Les femelles gardent les œufs, les larves puis les alevins pendant environ trois semaines, en les protégeant dans leur gueule (sans manger ou en filtrant très légèrement les micro-détritus). Les mâles peuvent se montrer très insistants dès les premières maturités sexuelles des femelles, il préférable de maintenir cette espèce en groupes de plusieurs individus, de manière à diviser l'agressivité d'un mâle dominant sur plusieurs individus.
 </t>
         </is>
       </c>
@@ -611,12 +626,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Statut</t>
+          <t>Aquariophilie</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cette espèce de Cichlidae est classée Vulnérable (VU) sur la liste rouge des espèces menacées IUCN du fait de sa zone de répartition extrêmement restreinte dans le lac Malawi, localisée autour de l'ile de Likoma[2].
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une alimentation à base de vers rouges ou vers de vase est fortement déconseillée.
 </t>
         </is>
       </c>
@@ -642,14 +663,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Systématique</t>
+          <t>Aquariophilie</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Aulonocara hueseri  Meyer (d), Riehl (d) &amp; Zetzsche (d), 1987[3],[4].
-Aulonocara hueseri a pour synonyme[3] :
-Aulonocara huserai Meyer, Riehl &amp; Zetzsche, 1987</t>
+          <t>Maintenance</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme la plupart des espèces de poissons du lac Malawi une température comprise entre 22 et 26 °C est nécessaire pour une bonne maintenance.
+</t>
         </is>
       </c>
     </row>
@@ -674,12 +700,18 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Étymologie</t>
+          <t>Aquariophilie</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Son nom spécifique, hueseri, lui a été donné en l'honneur de l'aquariophile allemand Eberhard Hüser[4].
+          <t>Croisement, hybridation, sélection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est impératif de maintenir cette espèce et le genre Aulonocara seul ou en compagnie d'autres espèces, d'autres genres, mais de provenance similaire (lac Malawi). toutes les femelles du genre étant très semblables. Le commerce aquariophile a également vu apparaitre un grand nombre de spécimens provenant d'Asie notamment et aux couleurs des plus farfelues ou albinos. En raison de la sélection, hybridation et autres procédés chimiques et barbares de laboratoires.
 </t>
         </is>
       </c>
@@ -705,10 +737,112 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Statut</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce de Cichlidae est classée Vulnérable (VU) sur la liste rouge des espèces menacées IUCN du fait de sa zone de répartition extrêmement restreinte dans le lac Malawi, localisée autour de l'ile de Likoma.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Aulonocara_hueseri</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aulonocara_hueseri</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Aulonocara hueseri  Meyer (d), Riehl (d) &amp; Zetzsche (d), 1987,.
+Aulonocara hueseri a pour synonyme :
+Aulonocara huserai Meyer, Riehl &amp; Zetzsche, 1987</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Aulonocara_hueseri</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aulonocara_hueseri</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique, hueseri, lui a été donné en l'honneur de l'aquariophile allemand Eberhard Hüser.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Aulonocara_hueseri</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aulonocara_hueseri</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>(en) M. K. Meyer, R. Riehl et H. Zetzsche, « A revision of the cichlid fishes of the genus Aulonocara Regan, 1922 from Lake Malawi, with descriptions of six new species (Pisces, Perciformes, Cichlidae) », Courier ForschungsInstitut Senckenberg, Allemagne, vol. 94,‎ 1er juillet 1987, p. 7-53 (ISSN 0341-4116, lire en ligne).</t>
         </is>
